--- a/data/mydata.xlsx
+++ b/data/mydata.xlsx
@@ -108,9 +108,13 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -130,7 +134,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="200" zoomScaleNormal="200" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
@@ -193,6 +197,9 @@
         <v>200</v>
       </c>
     </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="1"/>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
